--- a/teaching/traditional_assets/database/data/pakistan/pakistan_retail_automotive.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_retail_automotive.xlsx
@@ -591,43 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1415</v>
+        <v>0.001999999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.425</v>
       </c>
       <c r="G2">
-        <v>0.04482155380358972</v>
+        <v>-0.1087695748390715</v>
       </c>
       <c r="H2">
-        <v>0.04482155380358972</v>
+        <v>-0.1087695748390715</v>
       </c>
       <c r="I2">
-        <v>-0.06680559767394278</v>
+        <v>-0.1002685971321625</v>
       </c>
       <c r="J2">
-        <v>-0.06365439023649265</v>
+        <v>-0.09853982821609077</v>
       </c>
       <c r="K2">
-        <v>-97.152</v>
+        <v>-160.589</v>
       </c>
       <c r="L2">
-        <v>-0.09358888400804567</v>
+        <v>-0.1884312202402604</v>
       </c>
       <c r="M2">
-        <v>0.8524</v>
+        <v>0.051</v>
       </c>
       <c r="N2">
-        <v>0.02438842951560757</v>
+        <v>0.0005528635077563499</v>
       </c>
       <c r="O2">
-        <v>-0.008773880105401845</v>
+        <v>-0.0003175809052923924</v>
       </c>
       <c r="P2">
-        <v>0.8524</v>
+        <v>0.051</v>
       </c>
       <c r="Q2">
-        <v>0.02438842951560757</v>
+        <v>0.0005528635077563499</v>
       </c>
       <c r="R2">
-        <v>-0.008773880105401845</v>
+        <v>-0.0003175809052923924</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>30.243</v>
+        <v>31.376</v>
       </c>
       <c r="V2">
-        <v>0.8652971302680895</v>
+        <v>0.3401303023404555</v>
       </c>
       <c r="W2">
-        <v>-0.4050243370481688</v>
+        <v>-0.8193614859546943</v>
       </c>
       <c r="X2">
-        <v>0.3512154087518954</v>
+        <v>0.1827459789052231</v>
       </c>
       <c r="Y2">
-        <v>-0.7562397458000641</v>
+        <v>-1.002107464859917</v>
       </c>
       <c r="Z2">
-        <v>5.836025732171056</v>
+        <v>3.685967757703689</v>
       </c>
       <c r="AA2">
-        <v>-0.1825348481611103</v>
+        <v>-0.143843224180298</v>
       </c>
       <c r="AB2">
-        <v>0.1062647125854547</v>
+        <v>0.1055253777724187</v>
       </c>
       <c r="AC2">
-        <v>-0.288799560746565</v>
+        <v>-0.2493686019527167</v>
       </c>
       <c r="AD2">
-        <v>305.1</v>
+        <v>241.8</v>
       </c>
       <c r="AE2">
-        <v>22.63510194292576</v>
+        <v>17.76554878554231</v>
       </c>
       <c r="AF2">
-        <v>327.7351019429258</v>
+        <v>259.5655487855423</v>
       </c>
       <c r="AG2">
-        <v>297.4921019429258</v>
+        <v>228.1895487855423</v>
       </c>
       <c r="AH2">
-        <v>0.9036329216565897</v>
+        <v>0.7377950265889126</v>
       </c>
       <c r="AI2">
-        <v>1.031180671191225</v>
+        <v>1.454918586066854</v>
       </c>
       <c r="AJ2">
-        <v>0.8948662198260908</v>
+        <v>0.7121208540361047</v>
       </c>
       <c r="AK2">
-        <v>1.034459724485798</v>
+        <v>1.55199788525761</v>
       </c>
       <c r="AL2">
-        <v>33.4</v>
+        <v>50.3</v>
       </c>
       <c r="AM2">
-        <v>30.72</v>
+        <v>47.51</v>
       </c>
       <c r="AN2">
-        <v>-5.39818468125763</v>
+        <v>-3.312464895817636</v>
       </c>
       <c r="AO2">
-        <v>-2.044071856287425</v>
+        <v>-1.68986083499006</v>
       </c>
       <c r="AP2">
-        <v>-5.26357688463925</v>
+        <v>-3.126012696214122</v>
       </c>
       <c r="AQ2">
-        <v>-2.222395833333333</v>
+        <v>-1.789097032203747</v>
       </c>
     </row>
     <row r="3">
@@ -722,43 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.13</v>
+        <v>-0.103</v>
+      </c>
+      <c r="E3">
+        <v>0.425</v>
       </c>
       <c r="G3">
-        <v>0.1627906976744186</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="H3">
-        <v>0.1627906976744186</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="I3">
-        <v>0.1627906976744186</v>
+        <v>0.7042253521126761</v>
       </c>
       <c r="J3">
-        <v>0.1474330846862659</v>
+        <v>0.6799417192812045</v>
       </c>
       <c r="K3">
-        <v>0.048</v>
+        <v>0.111</v>
       </c>
       <c r="L3">
-        <v>0.2790697674418605</v>
+        <v>0.7816901408450705</v>
       </c>
       <c r="M3">
-        <v>0.056</v>
+        <v>0.017</v>
       </c>
       <c r="N3">
-        <v>0.1595441595441596</v>
+        <v>0.03107861060329068</v>
       </c>
       <c r="O3">
-        <v>1.166666666666667</v>
+        <v>0.1531531531531532</v>
       </c>
       <c r="P3">
-        <v>0.056</v>
+        <v>0.017</v>
       </c>
       <c r="Q3">
-        <v>0.1595441595441596</v>
+        <v>0.03107861060329068</v>
       </c>
       <c r="R3">
-        <v>1.166666666666667</v>
+        <v>0.1531531531531532</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,31 +773,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.343</v>
+        <v>0.476</v>
       </c>
       <c r="V3">
-        <v>0.9772079772079774</v>
+        <v>0.8702010968921389</v>
       </c>
       <c r="W3">
-        <v>0.0366412213740458</v>
+        <v>0.07449664429530202</v>
       </c>
       <c r="X3">
-        <v>0.09614020482988753</v>
+        <v>0.09963911376479914</v>
       </c>
       <c r="Y3">
-        <v>-0.05949898345584172</v>
+        <v>-0.02514246946949712</v>
       </c>
       <c r="Z3">
-        <v>0.1833688699360341</v>
+        <v>0.1238012205754141</v>
       </c>
       <c r="AA3">
-        <v>0.0270346381301042</v>
+        <v>0.08417761476715871</v>
       </c>
       <c r="AB3">
-        <v>0.09614020482988753</v>
+        <v>0.09963911376479914</v>
       </c>
       <c r="AC3">
-        <v>-0.06910556669978332</v>
+        <v>-0.01546149899764043</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.343</v>
+        <v>-0.476</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-42.87500000000026</v>
+        <v>-6.70422535211267</v>
       </c>
       <c r="AK3">
-        <v>-0.2990409764603313</v>
+        <v>-0.4937759336099585</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-11.06451612903226</v>
+        <v>-4.621359223300971</v>
       </c>
     </row>
     <row r="4">
@@ -847,43 +853,43 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.153</v>
+        <v>0.107</v>
       </c>
       <c r="G4">
-        <v>0.04480200404663262</v>
+        <v>-0.1089074052341274</v>
       </c>
       <c r="H4">
-        <v>0.04480200404663262</v>
+        <v>-0.1089074052341274</v>
       </c>
       <c r="I4">
-        <v>-0.06684364619769259</v>
+        <v>-0.1004026637215215</v>
       </c>
       <c r="J4">
-        <v>-0.06684364619769259</v>
+        <v>-0.1004026637215215</v>
       </c>
       <c r="K4">
-        <v>-97.2</v>
+        <v>-160.7</v>
       </c>
       <c r="L4">
-        <v>-0.09365064071683206</v>
+        <v>-0.1885928881586668</v>
       </c>
       <c r="M4">
-        <v>0.7964</v>
+        <v>0.034</v>
       </c>
       <c r="N4">
-        <v>0.02301734104046243</v>
+        <v>0.0003707742639040349</v>
       </c>
       <c r="O4">
-        <v>-0.008193415637860081</v>
+        <v>-0.0002115743621655259</v>
       </c>
       <c r="P4">
-        <v>0.7964</v>
+        <v>0.034</v>
       </c>
       <c r="Q4">
-        <v>0.02301734104046243</v>
+        <v>0.0003707742639040349</v>
       </c>
       <c r="R4">
-        <v>-0.008193415637860081</v>
+        <v>-0.0002115743621655259</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="V4">
-        <v>0.8641618497109825</v>
+        <v>0.3369683751363141</v>
       </c>
       <c r="W4">
-        <v>-0.8466898954703833</v>
+        <v>-1.713219616204691</v>
       </c>
       <c r="X4">
-        <v>0.6062906126739033</v>
+        <v>0.2658528440456471</v>
       </c>
       <c r="Y4">
-        <v>-1.452980508144287</v>
+        <v>-1.979072460250338</v>
       </c>
       <c r="Z4">
-        <v>5.865992607474785</v>
+        <v>3.703727066038439</v>
       </c>
       <c r="AA4">
-        <v>-0.3921043344523248</v>
+        <v>-0.3718640631277548</v>
       </c>
       <c r="AB4">
-        <v>0.1163892203410219</v>
+        <v>0.1114116417800382</v>
       </c>
       <c r="AC4">
-        <v>-0.5084935547933467</v>
+        <v>-0.483275704907793</v>
       </c>
       <c r="AD4">
-        <v>305.1</v>
+        <v>241.8</v>
       </c>
       <c r="AE4">
-        <v>22.63510194292576</v>
+        <v>17.76554878554231</v>
       </c>
       <c r="AF4">
-        <v>327.7351019429258</v>
+        <v>259.5655487855423</v>
       </c>
       <c r="AG4">
-        <v>297.8351019429258</v>
+        <v>228.6655487855423</v>
       </c>
       <c r="AH4">
-        <v>0.9045082857982384</v>
+        <v>0.7389439405115545</v>
       </c>
       <c r="AI4">
-        <v>1.036037733182253</v>
+        <v>1.466757516176777</v>
       </c>
       <c r="AJ4">
-        <v>0.8959195349775658</v>
+        <v>0.7137644782729574</v>
       </c>
       <c r="AK4">
-        <v>1.039799591330365</v>
+        <v>1.565499535563144</v>
       </c>
       <c r="AL4">
-        <v>33.4</v>
+        <v>50.3</v>
       </c>
       <c r="AM4">
-        <v>30.72</v>
+        <v>47.51</v>
       </c>
       <c r="AN4">
-        <v>-5.395225464190982</v>
+        <v>-3.307797537619699</v>
       </c>
       <c r="AO4">
-        <v>-2.044910179640719</v>
+        <v>-1.691848906560636</v>
       </c>
       <c r="AP4">
-        <v>-5.266756886700722</v>
+        <v>-3.128119682428759</v>
       </c>
       <c r="AQ4">
-        <v>-2.223307291666667</v>
+        <v>-1.791201852241633</v>
       </c>
     </row>
   </sheetData>
